--- a/8.SE_SwProjectEstimation.xlsx
+++ b/8.SE_SwProjectEstimation.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIUB\6thSemester\1SoftwareEngineering\Project\LabProject\SE_LabEssentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB430FD-5B27-4624-83D0-BF285722D9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17165D29-4FA3-4F3A-9B17-9B093843A05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19410" yWindow="1110" windowWidth="18195" windowHeight="11505" xr2:uid="{79521924-CEF8-4802-9416-773035B249E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{79521924-CEF8-4802-9416-773035B249E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$27:$E$36</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$27:$F$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Software Project Type</t>
   </si>
@@ -107,9 +111,6 @@
     <t>Time Needed (in days)</t>
   </si>
   <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
     <t>Transportation Cost</t>
   </si>
   <si>
@@ -132,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">Expense per Month </t>
+  </si>
+  <si>
+    <t>Requirement Analysis Total Cost</t>
   </si>
 </sst>
 </file>
@@ -305,7 +309,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -340,6 +344,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -357,6 +362,1394 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PROJECT BUDGET</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$27:$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Salary for Developers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rent for Workplace</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Utility Bill</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Office Supplies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Requirement Analysis Total Cost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transportation Cost</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Training &amp; H/W Expense Estimation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Maintenance (Till 3 Months After Delivery)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tax</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>331875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1738-47A2-9B27-A3E90279608D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB154578-F4B5-48E8-B8CA-750431817B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD390A0E-F1C3-427E-8951-9703BFF31CB4}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +2202,7 @@
         <v>135000</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7">
         <f>F13*F14</f>
@@ -829,7 +2222,7 @@
       <c r="A17"/>
       <c r="C17" s="18"/>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="7">
         <v>10000</v>
@@ -852,7 +2245,7 @@
         <v>80000</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="7">
         <v>100000</v>
@@ -870,7 +2263,7 @@
         <v>500</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7">
         <v>30000</v>
@@ -885,7 +2278,7 @@
         <v>4000</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7">
         <v>10000</v>
@@ -920,51 +2313,134 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
+      <c r="E27" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="7">
+        <f>B16</f>
+        <v>1080000</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="D28" s="8"/>
+      <c r="E28" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="7">
+        <f>B19</f>
+        <v>80000</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="19">
         <f>B16+B19+B22+B25+F15+F17+F19+F21</f>
         <v>1327500</v>
       </c>
       <c r="C29" s="18"/>
+      <c r="E29" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="7">
+        <f>B22</f>
+        <v>4000</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="19">
         <f>B29+(B29*15%)</f>
         <v>1526625</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="7">
+        <f>B25</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <f>B30-B29</f>
+        <v>199125</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="7">
+        <f>F15</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="7">
+        <f>F17</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="7">
         <f>(B29*25%)</f>
         <v>331875</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E33" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="7">
+        <f>F19</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="7">
+        <f>F21</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="7">
         <f>B30+B33</f>
         <v>1858500</v>
       </c>
+      <c r="E35" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="7">
+        <f>B31</f>
+        <v>199125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="7">
+        <f>B33</f>
+        <v>331875</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>